--- a/subscriptions.xlsx
+++ b/subscriptions.xlsx
@@ -31,10 +31,10 @@
     <t>notes</t>
   </si>
   <si>
-    <t>814756322@qq.com</t>
+    <t>tzjtzj0906@qq.com</t>
   </si>
   <si>
-    <t>北京大学,清华大学</t>
+    <t>北京工业大学,北京航空航天大学,北京理工大学,北京科技大学,北方工业大学,北京化工大学,北京工商大学,北京服装学院,北京邮电大学</t>
   </si>
   <si>
     <t>ACTIVE</t>
@@ -43,7 +43,7 @@
     <t/>
   </si>
   <si>
-    <t>示例：逗号分隔学校名</t>
+    <t>示例：英文逗号分隔学校名</t>
   </si>
 </sst>
 </file>
@@ -56,7 +56,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +77,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,48 +519,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,104 +573,105 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
@@ -729,6 +726,11 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -739,11 +741,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Subs" displayName="Subs" ref="A1:E2">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Subs" displayName="Subs" ref="A1:E3">
+  <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
     <tableColumn id="1" name="email"/>
-    <tableColumn id="2" name="schools"/>
+    <tableColumn id="2" name="schools" dataDxfId="0"/>
     <tableColumn id="3" name="status"/>
     <tableColumn id="4" name="expire_at"/>
     <tableColumn id="5" name="notes"/>
@@ -1037,15 +1039,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
@@ -1071,11 +1073,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="42" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1088,9 +1090,13 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId2" display="814756322@qq.com" tooltip="mailto:814756322@qq.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="tzjtzj0906@qq.com" tooltip="mailto:tzjtzj0906@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
